--- a/MMT_Broken_Links/src/main/resources/Excel_File/Test_Links.xlsx
+++ b/MMT_Broken_Links/src/main/resources/Excel_File/Test_Links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Page_Name</t>
   </si>
@@ -41,43 +41,37 @@
     <t>Browser</t>
   </si>
   <si>
+    <t>About_Page</t>
+  </si>
+  <si>
+    <t>https://magicminds.io/about-mmt/</t>
+  </si>
+  <si>
+    <t>https://magicminds.io/offshore-delivery/</t>
+  </si>
+  <si>
+    <t>Offshore_Page</t>
+  </si>
+  <si>
+    <t>https://magicminds.io/software-development/</t>
+  </si>
+  <si>
+    <t>SoftwareDevelopment_Page</t>
+  </si>
+  <si>
+    <t>https://magicminds.io/staff-augmentation/</t>
+  </si>
+  <si>
+    <t>StaffAugmentation_Page</t>
+  </si>
+  <si>
+    <t>Contact_Page</t>
+  </si>
+  <si>
+    <t>https://magicminds.io/contact/</t>
+  </si>
+  <si>
     <t>Chrome</t>
-  </si>
-  <si>
-    <t>About_Page</t>
-  </si>
-  <si>
-    <t>https://magicminds.io/about-mmt/</t>
-  </si>
-  <si>
-    <t>https://magicminds.io/offshore-delivery/</t>
-  </si>
-  <si>
-    <t>Offshore_Page</t>
-  </si>
-  <si>
-    <t>https://magicminds.io/software-development/</t>
-  </si>
-  <si>
-    <t>SoftwareDevelopment_Page</t>
-  </si>
-  <si>
-    <t>https://magicminds.io/staff-augmentation/</t>
-  </si>
-  <si>
-    <t>StaffAugmentation_Page</t>
-  </si>
-  <si>
-    <t>Contact_Page</t>
-  </si>
-  <si>
-    <t>https://magicminds.io/contact/</t>
-  </si>
-  <si>
-    <t>Edge</t>
-  </si>
-  <si>
-    <t>Firefox</t>
   </si>
 </sst>
 </file>
@@ -418,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,194 +445,62 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -649,20 +511,8 @@
     <hyperlink ref="B5" r:id="rId4"/>
     <hyperlink ref="B6" r:id="rId5"/>
     <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/MMT_Broken_Links/src/main/resources/Excel_File/Test_Links.xlsx
+++ b/MMT_Broken_Links/src/main/resources/Excel_File/Test_Links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>Page_Name</t>
   </si>
@@ -32,53 +32,161 @@
     <t>Links</t>
   </si>
   <si>
-    <t>Home_Page</t>
-  </si>
-  <si>
-    <t>https://magicminds.io/</t>
-  </si>
-  <si>
     <t>Browser</t>
   </si>
   <si>
-    <t>About_Page</t>
-  </si>
-  <si>
-    <t>https://magicminds.io/about-mmt/</t>
-  </si>
-  <si>
-    <t>https://magicminds.io/offshore-delivery/</t>
-  </si>
-  <si>
-    <t>Offshore_Page</t>
-  </si>
-  <si>
-    <t>https://magicminds.io/software-development/</t>
-  </si>
-  <si>
-    <t>SoftwareDevelopment_Page</t>
-  </si>
-  <si>
-    <t>https://magicminds.io/staff-augmentation/</t>
-  </si>
-  <si>
-    <t>StaffAugmentation_Page</t>
-  </si>
-  <si>
-    <t>Contact_Page</t>
-  </si>
-  <si>
-    <t>https://magicminds.io/contact/</t>
-  </si>
-  <si>
     <t>Chrome</t>
+  </si>
+  <si>
+    <t>Home_Page_English</t>
+  </si>
+  <si>
+    <t>About_Page_English</t>
+  </si>
+  <si>
+    <t>Our_Service_English</t>
+  </si>
+  <si>
+    <t>Accounting_English</t>
+  </si>
+  <si>
+    <t>Book_Keeping_English</t>
+  </si>
+  <si>
+    <t>Payroll_Services_English</t>
+  </si>
+  <si>
+    <t>Personal_Tax_English</t>
+  </si>
+  <si>
+    <t>Corporate_Tax_English</t>
+  </si>
+  <si>
+    <t>Tax_Representation_English</t>
+  </si>
+  <si>
+    <t>Our_Values_English</t>
+  </si>
+  <si>
+    <t>Blog_English</t>
+  </si>
+  <si>
+    <t>Contact_Us_English</t>
+  </si>
+  <si>
+    <t>Home_Page_French</t>
+  </si>
+  <si>
+    <t>About_Page_French</t>
+  </si>
+  <si>
+    <t>Our_Service_French</t>
+  </si>
+  <si>
+    <t>Accounting_French</t>
+  </si>
+  <si>
+    <t>Book_Keeping_French</t>
+  </si>
+  <si>
+    <t>Payroll_Services_French</t>
+  </si>
+  <si>
+    <t>Personal_Tax_French</t>
+  </si>
+  <si>
+    <t>Corporate_Tax_French</t>
+  </si>
+  <si>
+    <t>Tax_Representation_French</t>
+  </si>
+  <si>
+    <t>Our_Values_French</t>
+  </si>
+  <si>
+    <t>Blog_French</t>
+  </si>
+  <si>
+    <t>Contact_Us_French</t>
+  </si>
+  <si>
+    <t>https://www.cpainmontreal.com/</t>
+  </si>
+  <si>
+    <t>https://www.cpainmontreal.com/about-us/</t>
+  </si>
+  <si>
+    <t>https://www.cpainmontreal.com/our-services/</t>
+  </si>
+  <si>
+    <t>https://www.cpainmontreal.com/accounting/</t>
+  </si>
+  <si>
+    <t>https://www.cpainmontreal.com/bookkeeping/</t>
+  </si>
+  <si>
+    <t>https://www.cpainmontreal.com/payroll-services/</t>
+  </si>
+  <si>
+    <t>https://www.cpainmontreal.com/personal-tax/</t>
+  </si>
+  <si>
+    <t>https://www.cpainmontreal.com/corporate-tax/</t>
+  </si>
+  <si>
+    <t>https://www.cpainmontreal.com/tax-representation/</t>
+  </si>
+  <si>
+    <t>https://www.cpainmontreal.com/our-values/</t>
+  </si>
+  <si>
+    <t>https://www.cpainmontreal.com/blog/</t>
+  </si>
+  <si>
+    <t>https://www.cpainmontreal.com/contact-us/</t>
+  </si>
+  <si>
+    <t>https://www.cpainmontreal.com/fr/</t>
+  </si>
+  <si>
+    <t>https://www.cpainmontreal.com/fr/a-propos/</t>
+  </si>
+  <si>
+    <t>https://www.cpainmontreal.com/fr/services/</t>
+  </si>
+  <si>
+    <t>https://www.cpainmontreal.com/fr/comptabilite/</t>
+  </si>
+  <si>
+    <t>https://www.cpainmontreal.com/fr/tenue-de-livres/</t>
+  </si>
+  <si>
+    <t>https://www.cpainmontreal.com/fr/service-de-paye/</t>
+  </si>
+  <si>
+    <t>https://www.cpainmontreal.com/fr/fiscalite-des-particuliers/</t>
+  </si>
+  <si>
+    <t>https://www.cpainmontreal.com/fr/impot-sur-les-societes/</t>
+  </si>
+  <si>
+    <t>https://www.cpainmontreal.com/fr/representation-fiscale/</t>
+  </si>
+  <si>
+    <t>https://www.cpainmontreal.com/fr/nos-valeurs/</t>
+  </si>
+  <si>
+    <t>https://www.cpainmontreal.com/fr/blog/</t>
+  </si>
+  <si>
+    <t>https://www.cpainmontreal.com/fr/nous-contacter/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +197,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,11 +232,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -131,8 +248,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -412,17 +539,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="112.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -434,18 +561,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -453,66 +580,256 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>